--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_09-07-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/Source Files/T41_RF_Board_BOM_V012.6_09-07-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755C88A-E98B-493F-8643-7C50C7530B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D367D7-4574-45DA-832E-78009A99C908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="354">
   <si>
     <t>T41 V012.6 RF Board Parts (Less PCB)</t>
   </si>
@@ -1784,12 +1784,12 @@
         <v>339</v>
       </c>
       <c r="D13" s="4">
-        <f>'Board As Second RX'!A36</f>
-        <v>104</v>
+        <f>'Board As Second RX'!A37</f>
+        <v>105</v>
       </c>
       <c r="E13" s="20">
-        <f>'Board As Second RX'!H36</f>
-        <v>34.708999999999996</v>
+        <f>'Board As Second RX'!H37</f>
+        <v>40.028999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1805,8 +1805,8 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4893,10 +4893,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4953,7 +4953,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H35" si="0">G2*A2</f>
+        <f t="shared" ref="H2:H36" si="0">G2*A2</f>
         <v>0.97300000000000009</v>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>6</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0.10200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>10</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -5506,91 +5506,109 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>229</v>
+        <v>321</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
       </c>
       <c r="E29" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="0"/>
+        <v>5.32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="11">
         <v>0.33</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>0.84</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
         <v>3.36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>249</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>2.14</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
         <v>2.14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G32" s="11">
-        <v>2.46</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="0"/>
-        <v>2.46</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -5598,20 +5616,20 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G33" s="11">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="0"/>
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -5619,55 +5637,76 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>291</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>293</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>294</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>0.45</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H35" s="11">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>299</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>0.02</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <f>SUM(A2:A35)</f>
-        <v>104</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="16">
-        <f>SUM(H2:H35)</f>
-        <v>34.708999999999996</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <f>SUM(A2:A36)</f>
+        <v>105</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="16">
+        <f>SUM(H2:H36)</f>
+        <v>40.028999999999996</v>
       </c>
     </row>
   </sheetData>
